--- a/india/error.xlsx
+++ b/india/error.xlsx
@@ -445,40 +445,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33.07031018344227</v>
+        <v>19.38949161845708</v>
       </c>
       <c r="D2" t="n">
-        <v>20.83540508851505</v>
+        <v>25.49565311527687</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9823506492946932</v>
+        <v>0.8778201849651142</v>
       </c>
       <c r="F2" t="n">
-        <v>31.62772965708615</v>
+        <v>20.53250824105392</v>
       </c>
       <c r="G2" t="n">
-        <v>0.882694524220815</v>
+        <v>0.4333662129467641</v>
       </c>
       <c r="H2" t="n">
-        <v>21.29076550060878</v>
+        <v>24.76857154513855</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>183563137.6578991</v>
+        <v>4.626046870627148e+271</v>
       </c>
       <c r="K2" t="n">
-        <v>2167664.08187924</v>
+        <v>3772294.024178346</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1330442214435863</v>
+        <v>3.352899782151021e+262</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0015710952852763</v>
+        <v>0.002734110605792994</v>
       </c>
       <c r="N2" t="n">
-        <v>1.180882016692833</v>
+        <v>8.154465637022265e-264</v>
       </c>
     </row>
   </sheetData>
@@ -577,40 +577,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33.07031018344227</v>
+        <v>19.38949161845708</v>
       </c>
       <c r="D2" t="n">
-        <v>20.83540508851505</v>
+        <v>25.49565311527687</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9823506492946932</v>
+        <v>0.8778201849651142</v>
       </c>
       <c r="F2" t="n">
-        <v>31.62772965708615</v>
+        <v>20.53250824105392</v>
       </c>
       <c r="G2" t="n">
-        <v>0.882694524220815</v>
+        <v>0.4333662129467641</v>
       </c>
       <c r="H2" t="n">
-        <v>21.29076550060878</v>
+        <v>24.76857154513855</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>183563137.6578991</v>
+        <v>4.626046870627148e+271</v>
       </c>
       <c r="K2" t="n">
-        <v>2167664.08187924</v>
+        <v>3772294.024178346</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1330442214435863</v>
+        <v>3.352899782151021e+262</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0015710952852763</v>
+        <v>0.002734110605792994</v>
       </c>
       <c r="N2" t="n">
-        <v>1.180882016692833</v>
+        <v>8.154465637022265e-264</v>
       </c>
     </row>
   </sheetData>
@@ -709,40 +709,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33.07031018344227</v>
+        <v>19.38949161845708</v>
       </c>
       <c r="D2" t="n">
-        <v>20.83540508851505</v>
+        <v>25.49565311527687</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9823506492946932</v>
+        <v>0.8778201849651142</v>
       </c>
       <c r="F2" t="n">
-        <v>31.62772965708615</v>
+        <v>20.53250824105392</v>
       </c>
       <c r="G2" t="n">
-        <v>0.882694524220815</v>
+        <v>0.4333662129467641</v>
       </c>
       <c r="H2" t="n">
-        <v>21.29076550060878</v>
+        <v>24.76857154513855</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>183563137.6578991</v>
+        <v>4.626046870627148e+271</v>
       </c>
       <c r="K2" t="n">
-        <v>2167664.08187924</v>
+        <v>3772294.024178346</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1330442214435863</v>
+        <v>3.352899782151021e+262</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0015710952852763</v>
+        <v>0.002734110605792994</v>
       </c>
       <c r="N2" t="n">
-        <v>1.180882016692833</v>
+        <v>8.154465637022265e-264</v>
       </c>
     </row>
   </sheetData>

--- a/india/error.xlsx
+++ b/india/error.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="All errors" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Errors of good models (new)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Errors of good models (deaths)" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -360,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -386,50 +384,60 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Prediction R2 (new)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Prediction R2 (dead)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>MAPE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>R2 Deaths</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>MAPE Deaths</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>peaks diff</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>total cases</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>total deaths</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>cases/pop</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>deaths/pop</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>mortality</t>
         </is>
@@ -445,304 +453,46 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.38949161845708</v>
+        <v>23.0216909980669</v>
       </c>
       <c r="D2" t="n">
-        <v>25.49565311527687</v>
+        <v>22.46240959555775</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8778201849651142</v>
+        <v>-0.9934374619402313</v>
       </c>
       <c r="F2" t="n">
-        <v>20.53250824105392</v>
+        <v>-0.201003399799512</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4333662129467641</v>
+        <v>0.9224545576805623</v>
       </c>
       <c r="H2" t="n">
-        <v>24.76857154513855</v>
+        <v>18.82018438561282</v>
       </c>
       <c r="I2" t="n">
+        <v>0.4028375446504145</v>
+      </c>
+      <c r="J2" t="n">
+        <v>22.77394830231477</v>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>4.626046870627148e+271</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3772294.024178346</v>
-      </c>
       <c r="L2" t="n">
-        <v>3.352899782151021e+262</v>
+        <v>1.348046820000552e+270</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002734110605792994</v>
+        <v>2637686.788280273</v>
       </c>
       <c r="N2" t="n">
-        <v>8.154465637022265e-264</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Prediction MAPE (new)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Prediction MAPE (dead)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAPE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>R2 Deaths</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MAPE Deaths</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>peaks diff</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>total cases</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>total deaths</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>cases/pop</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>deaths/pop</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>mortality</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19.38949161845708</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.49565311527687</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8778201849651142</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20.53250824105392</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.4333662129467641</v>
-      </c>
-      <c r="H2" t="n">
-        <v>24.76857154513855</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.626046870627148e+271</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3772294.024178346</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.352899782151021e+262</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.002734110605792994</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8.154465637022265e-264</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Prediction MAPE (new)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Prediction MAPE (dead)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAPE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>R2 Deaths</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MAPE Deaths</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>peaks diff</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>total cases</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>total deaths</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>cases/pop</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>deaths/pop</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>mortality</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19.38949161845708</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.49565311527687</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8778201849651142</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20.53250824105392</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.4333662129467641</v>
-      </c>
-      <c r="H2" t="n">
-        <v>24.76857154513855</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.626046870627148e+271</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3772294.024178346</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.352899782151021e+262</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.002734110605792994</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8.154465637022265e-264</v>
+        <v>9.770471453300417e+260</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.001911761749315912</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.956672979859256e-262</v>
       </c>
     </row>
   </sheetData>
